--- a/outputs/c/_spinach_both.xlsx
+++ b/outputs/c/_spinach_both.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="129">
   <si>
     <t>participant</t>
   </si>
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>activity 2</t>
   </si>
   <si>
@@ -396,13 +393,19 @@
     <t>packaged</t>
   </si>
   <si>
-    <t>uniq</t>
-  </si>
-  <si>
     <t>heat</t>
   </si>
   <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>activity 1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -743,7 +746,7 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="A1:O1048576"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -784,19 +787,19 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>0</v>
@@ -805,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>2</v>
@@ -823,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -834,7 +837,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>292</v>
@@ -846,19 +849,19 @@
         <v>2668</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -868,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S2" s="2">
         <v>0</v>
@@ -883,13 +886,13 @@
         <v>2274</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="Y2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -900,7 +903,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>413</v>
@@ -912,22 +915,22 @@
         <v>2142</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -937,7 +940,7 @@
         <v>15</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S3" s="2">
         <v>0</v>
@@ -952,13 +955,13 @@
         <v>2142</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="Y3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -969,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>53</v>
@@ -981,20 +984,20 @@
         <v>574</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1004,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S4" s="2">
         <v>0</v>
@@ -1019,13 +1022,13 @@
         <v>574</v>
       </c>
       <c r="W4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="Y4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1036,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>132</v>
@@ -1048,25 +1051,25 @@
         <v>1478</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1076,7 +1079,7 @@
         <v>4</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S5" s="2">
         <v>0</v>
@@ -1091,13 +1094,13 @@
         <v>1478</v>
       </c>
       <c r="W5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="Y5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1108,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>39</v>
@@ -1120,20 +1123,20 @@
         <v>420</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1143,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S6" s="2">
         <v>0</v>
@@ -1158,13 +1161,13 @@
         <v>274</v>
       </c>
       <c r="W6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="Y6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1175,7 +1178,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>267</v>
@@ -1187,23 +1190,23 @@
         <v>1964</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
@@ -1228,13 +1231,13 @@
         <v>1964</v>
       </c>
       <c r="W7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="Y7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1245,7 +1248,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>155</v>
@@ -1257,23 +1260,23 @@
         <v>978</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N8" s="2">
         <v>1</v>
@@ -1283,7 +1286,7 @@
         <v>15</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S8" s="2">
         <v>1</v>
@@ -1298,13 +1301,13 @@
         <v>242</v>
       </c>
       <c r="W8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="X8" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="Y8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1313,7 +1316,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1321,15 +1324,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N9" s="2">
         <v>2</v>
@@ -1339,7 +1342,7 @@
         <v>15</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S9" s="2">
         <v>2</v>
@@ -1354,13 +1357,13 @@
         <v>482</v>
       </c>
       <c r="W9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="X9" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="Y9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1371,7 +1374,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>145</v>
@@ -1383,20 +1386,20 @@
         <v>920</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N10" s="2">
         <v>1</v>
@@ -1406,7 +1409,7 @@
         <v>18</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S10" s="2">
         <v>1</v>
@@ -1421,13 +1424,13 @@
         <v>126</v>
       </c>
       <c r="W10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="X10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="X10" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="Y10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1438,7 +1441,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1">
         <v>371</v>
@@ -1450,22 +1453,22 @@
         <v>1890</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N11" s="2">
         <v>2</v>
@@ -1475,7 +1478,7 @@
         <v>18</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S11" s="2">
         <v>2</v>
@@ -1490,13 +1493,13 @@
         <v>128</v>
       </c>
       <c r="W11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="X11" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="Y11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1507,7 +1510,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1">
         <v>777</v>
@@ -1519,19 +1522,19 @@
         <v>4570</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N12" s="2">
         <v>2</v>
@@ -1543,25 +1546,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1572,7 +1575,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>228</v>
@@ -1584,10 +1587,10 @@
         <v>2274</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1598,7 +1601,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>261</v>
@@ -1610,10 +1613,10 @@
         <v>2504</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1624,7 +1627,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>271</v>
@@ -1636,10 +1639,10 @@
         <v>2520</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1650,7 +1653,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
         <v>304</v>
@@ -1662,10 +1665,10 @@
         <v>2738</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1676,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1">
         <v>135</v>
@@ -1688,10 +1691,10 @@
         <v>2204</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1702,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1">
         <v>160</v>
@@ -1714,10 +1717,10 @@
         <v>2384</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1728,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1">
         <v>197</v>
@@ -1740,10 +1743,10 @@
         <v>2652</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1754,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1">
         <v>280</v>
@@ -1766,10 +1769,10 @@
         <v>3854</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1780,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1">
         <v>283</v>
@@ -1792,10 +1795,10 @@
         <v>3866</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1806,7 +1809,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1">
         <v>346</v>
@@ -1818,10 +1821,10 @@
         <v>2960</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1832,7 +1835,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1">
         <v>25</v>
@@ -1844,10 +1847,10 @@
         <v>274</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1858,7 +1861,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1">
         <v>51</v>
@@ -1870,10 +1873,10 @@
         <v>530</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1884,7 +1887,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="1">
         <v>57</v>
@@ -1896,10 +1899,10 @@
         <v>674</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1910,7 +1913,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1">
         <v>67</v>
@@ -1922,10 +1925,10 @@
         <v>694</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1936,7 +1939,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1">
         <v>276</v>
@@ -1948,10 +1951,10 @@
         <v>1992</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1962,7 +1965,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="1">
         <v>46</v>
@@ -1974,10 +1977,10 @@
         <v>242</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1988,7 +1991,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1">
         <v>78</v>
@@ -2000,10 +2003,10 @@
         <v>482</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2014,7 +2017,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="1">
         <v>81</v>
@@ -2026,10 +2029,10 @@
         <v>490</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2040,7 +2043,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1">
         <v>83</v>
@@ -2052,10 +2055,10 @@
         <v>498</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2066,7 +2069,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="1">
         <v>158</v>
@@ -2078,10 +2081,10 @@
         <v>982</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2092,7 +2095,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1">
         <v>191</v>
@@ -2104,10 +2107,10 @@
         <v>1126</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2118,7 +2121,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1">
         <v>6</v>
@@ -2130,10 +2133,10 @@
         <v>126</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2144,7 +2147,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="1">
         <v>7</v>
@@ -2156,10 +2159,10 @@
         <v>128</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2170,7 +2173,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1">
         <v>43</v>
@@ -2182,10 +2185,10 @@
         <v>302</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2196,7 +2199,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1">
         <v>44</v>
@@ -2208,10 +2211,10 @@
         <v>302</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2222,7 +2225,7 @@
         <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1">
         <v>65</v>
@@ -2234,10 +2237,10 @@
         <v>438</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2248,7 +2251,7 @@
         <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40" s="1">
         <v>67</v>
@@ -2260,10 +2263,10 @@
         <v>438</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2274,7 +2277,7 @@
         <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="1">
         <v>138</v>
@@ -2286,10 +2289,10 @@
         <v>860</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2300,7 +2303,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1">
         <v>142</v>
@@ -2312,10 +2315,10 @@
         <v>868</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2326,7 +2329,7 @@
         <v>18</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="1">
         <v>143</v>
@@ -2338,10 +2341,10 @@
         <v>880</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2352,7 +2355,7 @@
         <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" s="1">
         <v>148</v>
@@ -2364,10 +2367,10 @@
         <v>966</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2378,7 +2381,7 @@
         <v>18</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" s="1">
         <v>151</v>
@@ -2390,10 +2393,10 @@
         <v>1006</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2404,7 +2407,7 @@
         <v>18</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46" s="1">
         <v>158</v>
@@ -2416,10 +2419,10 @@
         <v>1010</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2430,7 +2433,7 @@
         <v>18</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" s="1">
         <v>164</v>
@@ -2442,10 +2445,10 @@
         <v>1024</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2456,7 +2459,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" s="1">
         <v>165</v>
@@ -2468,10 +2471,10 @@
         <v>1026</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2482,7 +2485,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" s="1">
         <v>173</v>
@@ -2494,10 +2497,10 @@
         <v>1084</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2508,7 +2511,7 @@
         <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" s="1">
         <v>287</v>
@@ -2520,10 +2523,10 @@
         <v>1666</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2534,7 +2537,7 @@
         <v>18</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51" s="1">
         <v>384</v>
@@ -2546,10 +2549,10 @@
         <v>1972</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2560,7 +2563,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52" s="1">
         <v>389</v>
@@ -2572,10 +2575,10 @@
         <v>1994</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2586,7 +2589,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53" s="1">
         <v>400</v>
@@ -2598,10 +2601,10 @@
         <v>2086</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2612,7 +2615,7 @@
         <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54" s="1">
         <v>444</v>
@@ -2624,10 +2627,10 @@
         <v>2246</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2638,7 +2641,7 @@
         <v>18</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55" s="1">
         <v>458</v>
@@ -2650,10 +2653,10 @@
         <v>2332</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
